--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_2Seat_quan.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_2Seat_quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1E07FD-DBE0-4E79-89E3-31C414F81144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC1E444-9231-499C-A5B2-9BD4D4CFE193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,13 @@
     </font>
     <font>
       <sz val="44"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="40"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -287,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -341,7 +348,19 @@
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
@@ -351,12 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,117 +655,117 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3" max="6" width="5.140625" style="3" customWidth="1"/>
+    <col min="3" max="6" width="4" style="3" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11" max="14" width="5.140625" style="3" customWidth="1"/>
+    <col min="11" max="14" width="4" style="3" customWidth="1"/>
     <col min="15" max="15" width="3.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="3" customWidth="1"/>
     <col min="17" max="16384" width="10.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="5"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="20"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="20"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="5"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="20"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="5"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -760,7 +773,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="14"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -768,184 +781,184 @@
       <c r="M5" s="6"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="20"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="20"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="20"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="18" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="18" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+    <row r="13" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+    <row r="14" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
       <c r="B15" s="5"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -953,7 +966,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="5"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="5"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -963,49 +976,49 @@
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="5"/>
       <c r="O17" s="15"/>
       <c r="P17" s="7"/>
@@ -1036,22 +1049,22 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="J6:O14"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="B6:G14"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.24" bottom="0.75" header="0.3" footer="0.3"/>
